--- a/yield_prediction/results/graph_descriptors/WLlinear_6/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_6/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.55</v>
+        <v>16.415</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.588</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.002</v>
+        <v>17.339</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.967</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.006</v>
+        <v>1.021</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.80899662951274</v>
+        <v>12.2329626947939</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.43885427821527</v>
+        <v>13.87161349441901</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>11.84109530380246</v>
+        <v>14.1002709698865</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.347561548408414</v>
+        <v>12.5278745344793</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.93980759763254</v>
+        <v>18.84929364775024</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.38658046884075</v>
+        <v>17.61829996699646</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.63002796620708</v>
+        <v>23.36720576110223</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.91324780612237</v>
+        <v>24.79759740126664</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.08166705177555</v>
+        <v>21.67405240350542</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43.05829168898774</v>
+        <v>44.10069033865771</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.79012255510337</v>
+        <v>14.99286840270581</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.02699643974745</v>
+        <v>18.0301606635233</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.05215056885623</v>
+        <v>18.96740302799663</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.07031763157346</v>
+        <v>14.85752848918084</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38.97796400272119</v>
+        <v>39.47432240843351</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18.01725176739808</v>
+        <v>15.04661797902047</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16.64390620853226</v>
+        <v>15.929896101044</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>18.3188765320776</v>
+        <v>16.88665863992409</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>11.69421239548607</v>
+        <v>13.26012123339966</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>38.30060525390194</v>
+        <v>38.10983315556975</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.35791647276726</v>
+        <v>23.9032404081545</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.64709601610975</v>
+        <v>24.69928759842337</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.07121354280773</v>
+        <v>18.58414400893887</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18.48084228632389</v>
+        <v>16.40713257477818</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.62865064352502</v>
+        <v>22.33783748719565</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.13811796877548</v>
+        <v>23.13580844891113</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>19.41849454276029</v>
+        <v>17.42885774258421</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>53.01166118181975</v>
+        <v>53.70012916010607</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>57.37757240989362</v>
+        <v>58.67383134189058</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>49.25797152969213</v>
+        <v>50.59550411584673</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>49.02124478135809</v>
+        <v>48.2644158849243</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>62.99148791993128</v>
+        <v>63.59030120872494</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>68.55279731412976</v>
+        <v>68.88582345118778</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>59.06446188184228</v>
+        <v>60.81799235096254</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46.78809833881905</v>
+        <v>45.44944317086516</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>50.58785686382641</v>
+        <v>48.27597975707048</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>42.65442507228244</v>
+        <v>42.00292266212315</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.90899511485945</v>
+        <v>47.21548347835633</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>58.22235250697115</v>
+        <v>56.52622254577255</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>63.55171230327594</v>
+        <v>61.54500489240921</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53.04717371604433</v>
+        <v>52.89105483894795</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>40.2323711786574</v>
+        <v>39.89549933766238</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43.51772286000845</v>
+        <v>42.38953583368829</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.66500488688065</v>
+        <v>36.74179335080888</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>49.09452602253133</v>
+        <v>49.2301466737448</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>56.39515926812571</v>
+        <v>57.63774755423628</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>61.09372338784348</v>
+        <v>62.61840378467208</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>50.56814839463247</v>
+        <v>53.27866308333154</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38.61471322534831</v>
+        <v>37.81679439164622</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.41767543838125</v>
+        <v>34.13818114877712</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.43925741855028</v>
+        <v>37.86774283514919</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.75063564518184</v>
+        <v>26.97610032753786</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.67584474848709</v>
+        <v>23.79375038294408</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>45.5781624516088</v>
+        <v>42.41507575275902</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>47.78667796265853</v>
+        <v>46.21169417216467</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>53.87263821856335</v>
+        <v>52.18036272821708</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.60501857088863</v>
+        <v>40.78635205813895</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>46.17737287251005</v>
+        <v>46.59704856819332</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>41.70463048976508</v>
+        <v>39.74319225676932</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.37772146157065</v>
+        <v>39.73707521301938</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>47.95787309555708</v>
+        <v>44.36570702117602</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.83357290132848</v>
+        <v>32.11813635163808</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.49714072552376</v>
+        <v>41.64770615391479</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>45.84182231133175</v>
+        <v>44.59099983847564</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>43.69899546395465</v>
+        <v>43.00160991419447</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>48.89780011898736</v>
+        <v>47.90897478315395</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.65459080440148</v>
+        <v>35.82597967949048</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>42.45438709542107</v>
+        <v>42.06750491055379</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.05072512181437</v>
+        <v>28.93766708975757</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32.21989308364419</v>
+        <v>31.39231143127452</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>22.9287220223732</v>
+        <v>23.41420608786765</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.29452339279527</v>
+        <v>34.02077805357852</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.4874636390432</v>
+        <v>35.89348584407275</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>39.0050454771064</v>
+        <v>38.3887828957745</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.54310850026697</v>
+        <v>28.5086438324014</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>52.37738855612067</v>
+        <v>53.4101524253506</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>58.17160442453256</v>
+        <v>59.00591514122941</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.19916695085357</v>
+        <v>47.66022725634149</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>54.36946005816183</v>
+        <v>53.59039862653971</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>62.5329225335649</v>
+        <v>61.63457914107497</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>69.76920424749494</v>
+        <v>68.66784841772024</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>54.72595182781912</v>
+        <v>55.01867054195414</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>48.9506286389663</v>
+        <v>48.31965922415353</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>54.09623607845701</v>
+        <v>52.94936494087271</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>42.65405267002586</v>
+        <v>43.20978829998585</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>52.64957641539096</v>
+        <v>52.02698346540861</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>60.41946227976267</v>
+        <v>59.24242169706562</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>67.38589529417533</v>
+        <v>65.44761691997512</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>51.86659001542999</v>
+        <v>53.12534871443062</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>44.06862512920083</v>
+        <v>45.2048805622496</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>48.64819869182786</v>
+        <v>49.0900724726818</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.73373688599209</v>
+        <v>42.03725959050774</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>53.17312870352632</v>
+        <v>50.48468996636481</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>58.75767643491955</v>
+        <v>57.59180125433038</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>65.14105986013803</v>
+        <v>63.01020214662825</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>51.17464966343618</v>
+        <v>52.33027517556513</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.65139327995056</v>
+        <v>26.5424316409124</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.80617365400085</v>
+        <v>24.77894351026507</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.73146189844987</v>
+        <v>26.92482507599655</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.26191338031653</v>
+        <v>20.20247380889347</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.68593999997363</v>
+        <v>24.70336312577511</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>41.58871959973185</v>
+        <v>41.59782126819755</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>46.63851485534732</v>
+        <v>49.22480197549952</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>51.57772629089258</v>
+        <v>53.68159012450052</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>40.52812813560222</v>
+        <v>44.98174857762881</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>47.52579630223041</v>
+        <v>47.08750237554435</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.05942221442686</v>
+        <v>38.64635500574751</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>41.07802562574462</v>
+        <v>39.88002405976722</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>45.73336946388149</v>
+        <v>44.38140434747011</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.92810476032216</v>
+        <v>30.46473027659009</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.14060484316141</v>
+        <v>45.43413473197806</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>43.18085030236278</v>
+        <v>43.66893931547927</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>43.55090396055744</v>
+        <v>44.49311434649331</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>48.3127592734832</v>
+        <v>49.41157303107489</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.51424332530674</v>
+        <v>36.03022691307275</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>44.64848763201817</v>
+        <v>45.27234945784646</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.64272230519833</v>
+        <v>30.50115605044099</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.81180258219064</v>
+        <v>32.63338984185408</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>23.43953859980168</v>
+        <v>25.63233836877866</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30.94074508749641</v>
+        <v>32.9608511870201</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.45077003632525</v>
+        <v>36.16841425256812</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.64614614455051</v>
+        <v>38.21154249281516</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.36005337301684</v>
+        <v>29.87907012764832</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>54.14215614988686</v>
+        <v>55.00664830081215</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>59.83108368538225</v>
+        <v>59.83781904744455</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>47.73971441490129</v>
+        <v>50.18757432518017</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>54.16270622168921</v>
+        <v>50.08498071633583</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>64.49378169614079</v>
+        <v>61.05005154223326</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>71.23014089084995</v>
+        <v>66.68314617458742</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>57.67686479175329</v>
+        <v>56.49582409823721</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.57681140105751</v>
+        <v>52.20083413095976</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>56.8753575608314</v>
+        <v>57.06448483956653</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>44.67524364455459</v>
+        <v>46.76046304360796</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>53.48458472716617</v>
+        <v>49.91054304830013</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>62.93521542457147</v>
+        <v>59.47315355797981</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>69.7013232933724</v>
+        <v>65.5037810872164</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>54.87814935444175</v>
+        <v>53.68882851972726</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>46.87356168529452</v>
+        <v>47.97050771147056</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>52.01188444490318</v>
+        <v>53.09159164256208</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>41.49483050981745</v>
+        <v>43.01191463916305</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>55.33763538472249</v>
+        <v>53.09355883904083</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>62.79368578524496</v>
+        <v>60.55529660942672</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>69.52151503097855</v>
+        <v>67.2769271823968</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>55.12461320854088</v>
+        <v>54.46805913555126</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>14.93738137612219</v>
+        <v>15.57554972397221</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>23.2512583250729</v>
+        <v>27.6471128669782</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.09719456496587</v>
+        <v>29.15013162597566</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.04236783849771</v>
+        <v>35.07987585010326</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>16.77075282784049</v>
+        <v>13.00883157441674</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.7272028530215</v>
+        <v>23.07925614439137</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>37.46885818430477</v>
+        <v>36.24801831051104</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>41.28046194445216</v>
+        <v>39.15412016757442</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>41.70270403465168</v>
+        <v>41.06725674619775</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>44.95827919068913</v>
+        <v>49.26558880934798</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.44466854031165</v>
+        <v>20.17941911899391</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>34.09010652260317</v>
+        <v>33.07161848512911</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>37.72040007444062</v>
+        <v>35.71854243247661</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.22466439446802</v>
+        <v>37.60930439798965</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40.15931730304507</v>
+        <v>38.81570068985317</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>23.26247579319131</v>
+        <v>21.7417778057745</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>30.83843099706233</v>
+        <v>32.15870973290988</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>34.0826609464942</v>
+        <v>34.79924647785968</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>33.58223730642</v>
+        <v>37.63395173627386</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.54869167548065</v>
+        <v>33.64046822510977</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.09925110561309</v>
+        <v>17.08514238718816</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>21.70734399904062</v>
+        <v>17.52505907058342</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>15.82663476045045</v>
+        <v>13.49839961141547</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>16.22326038178522</v>
+        <v>14.53275007092118</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.55429125939119</v>
+        <v>20.28744173544714</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23.98014525972236</v>
+        <v>20.9092879392301</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.40656047795692</v>
+        <v>18.80050438103407</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>52.77018840260991</v>
+        <v>55.73294179061231</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>57.42320545888699</v>
+        <v>61.02905221057297</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>48.34964230773279</v>
+        <v>50.17149998392281</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49.77961437198759</v>
+        <v>52.78531019451718</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>62.8486069454595</v>
+        <v>64.40417431159645</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>68.10637716585202</v>
+        <v>69.98583867248607</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>59.00118705459575</v>
+        <v>60.07881672353899</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>46.92921407775811</v>
+        <v>45.12550768969656</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>50.9029013463128</v>
+        <v>48.23343760499144</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>42.35332834720721</v>
+        <v>40.70417945699057</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>47.11249301938318</v>
+        <v>45.64684754988846</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>58.6606903120379</v>
+        <v>57.33608071014051</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>63.506183170832</v>
+        <v>61.08366748790358</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>53.8419662302407</v>
+        <v>53.33601496869304</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>35.71479365953628</v>
+        <v>34.41218527949989</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>39.16891844409459</v>
+        <v>36.76181949294051</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.5295597259925</v>
+        <v>32.00507862707366</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>43.99258774272691</v>
+        <v>44.01671821425206</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>51.34077487420205</v>
+        <v>51.002859332738</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>55.62327364389792</v>
+        <v>54.42807457664294</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>46.87436175785407</v>
+        <v>47.82749342924988</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.05927832872688</v>
+        <v>22.50408243560356</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.42869545919043</v>
+        <v>18.22740863558338</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>22.21344265354449</v>
+        <v>19.98531671435415</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.941541411241538</v>
+        <v>13.83940363761364</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.16361360628295</v>
+        <v>24.89815395423545</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>38.01794300885548</v>
+        <v>37.17313492830789</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>38.5987808938737</v>
+        <v>32.60160341745472</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>43.17158286095591</v>
+        <v>36.16344963422041</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.07140906440723</v>
+        <v>16.66314018716972</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>47.94527155434363</v>
+        <v>48.68631410663703</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>37.83994255161711</v>
+        <v>36.43407203389477</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>35.98513080440124</v>
+        <v>33.74769495028946</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>40.49813587139107</v>
+        <v>37.06003933783066</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>20.64910034208066</v>
+        <v>16.74489598407229</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>45.81318737085947</v>
+        <v>47.19738905779309</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>43.06105606517906</v>
+        <v>42.57548954278418</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.4111823336227</v>
+        <v>35.82164667774669</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.06093766508864</v>
+        <v>39.91025489844508</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>21.51460116464489</v>
+        <v>16.84590018710285</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>48.18784109946561</v>
+        <v>47.50888775358655</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.07692363371822</v>
+        <v>32.83500703312084</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.42272688221925</v>
+        <v>35.01289486955228</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.70030622737185</v>
+        <v>29.73755011802275</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.70649394055038</v>
+        <v>30.74723963359618</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>34.31689386981429</v>
+        <v>35.72029539596596</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>37.00568934650828</v>
+        <v>37.27949510735117</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.08253258109749</v>
+        <v>31.44464022976239</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>59.1879938355171</v>
+        <v>59.34869921455685</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>65.11559628381039</v>
+        <v>64.72411703286802</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>53.65574461315048</v>
+        <v>54.80799145732114</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>51.16276314827351</v>
+        <v>50.78938454417177</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>64.79909636152036</v>
+        <v>63.15786464698071</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>71.03914099653728</v>
+        <v>68.74446455867985</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>59.51590649707286</v>
+        <v>59.16784412472224</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>55.41732501476505</v>
+        <v>56.36737347896537</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>61.062085737344</v>
+        <v>61.60645523235932</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>49.21629124377824</v>
+        <v>51.19202776057963</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>48.87621476498944</v>
+        <v>46.25291154390965</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>60.77144364481165</v>
+        <v>59.0874050118518</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>66.98683051774717</v>
+        <v>64.37791493276505</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>54.22180254830417</v>
+        <v>55.03821792370053</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>52.82065672173006</v>
+        <v>52.59104951405007</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>58.75320777088538</v>
+        <v>58.23541925571164</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>47.71222383870008</v>
+        <v>48.86912324501854</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>55.74330246565879</v>
+        <v>53.74837968076412</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>63.55231378190264</v>
+        <v>62.08706960841408</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>69.89768333292483</v>
+        <v>68.42901242728799</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>56.59384406577995</v>
+        <v>56.98787481332184</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.42522955089128</v>
+        <v>29.96161424338162</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>22.39312888265058</v>
+        <v>19.79324854316889</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.90392213388343</v>
+        <v>22.67442425446274</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>10.39105627909911</v>
+        <v>12.42898677861237</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.66763623766688</v>
+        <v>31.19833921296988</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.9140547028627</v>
+        <v>34.30757180529528</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.00360757368914</v>
+        <v>28.91776247942605</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>35.78979227140029</v>
+        <v>32.20897128318761</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>16.95924092386404</v>
+        <v>14.07851869782416</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>49.15026311218281</v>
+        <v>48.83910457125829</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>36.5927449054719</v>
+        <v>37.50999565027428</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.62268852870836</v>
+        <v>33.46066130770554</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.38573169665653</v>
+        <v>36.56661959306784</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>12.77267740848167</v>
+        <v>15.70943484036257</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>47.856203384407</v>
+        <v>50.30248035488427</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>43.25391589523809</v>
+        <v>43.13839100828527</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>33.0350541788995</v>
+        <v>35.57936298346696</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.83498917136432</v>
+        <v>39.24885965244852</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>15.23652729198998</v>
+        <v>16.51137182575</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>50.38417238817098</v>
+        <v>50.34650411811135</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.65279063634236</v>
+        <v>36.99205409703519</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>42.90540599815537</v>
+        <v>40.40014672753495</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32.91161993807911</v>
+        <v>31.98805636919229</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.55346442449866</v>
+        <v>33.52909783968566</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>37.98982027694124</v>
+        <v>37.55934452737338</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>41.48306886560914</v>
+        <v>40.0631876494445</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.08148355260463</v>
+        <v>31.33585350265459</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>57.54866795609114</v>
+        <v>58.23090957174755</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>63.98584548467097</v>
+        <v>63.85496146625172</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>51.2918377119387</v>
+        <v>53.25402817716881</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>52.20725904139658</v>
+        <v>49.64225673786088</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>62.71937434724435</v>
+        <v>60.62305485079615</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>69.38610679689737</v>
+        <v>66.5718353998752</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>55.87338912400503</v>
+        <v>56.16269029368316</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>55.65363038733867</v>
+        <v>56.89085924000996</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>61.98659428529849</v>
+        <v>62.98516887838441</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>48.92395845839359</v>
+        <v>50.62955045621599</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>52.98610331061435</v>
+        <v>51.08775855044701</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>63.39670967945025</v>
+        <v>61.46033349340934</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>70.24876170600851</v>
+        <v>67.69026797515076</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>55.68959046083776</v>
+        <v>56.22620118686909</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>54.52789926852558</v>
+        <v>54.55992967935826</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>60.82635444742611</v>
+        <v>60.56515365501984</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>49.19412493208544</v>
+        <v>49.88150814734117</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>55.58216675441207</v>
+        <v>53.46523116983863</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>62.62242294120948</v>
+        <v>60.22669409757903</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>69.22752097395343</v>
+        <v>66.57598856196716</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>54.6401657101631</v>
+        <v>54.0261118263447</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>11.29066751600141</v>
+        <v>11.41510249282383</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>11.68606530893307</v>
+        <v>13.90743209736263</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>11.95461377622676</v>
+        <v>13.90871809967744</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.236010931088948</v>
+        <v>12.9411150584854</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>20.14631882100313</v>
+        <v>20.06698644862833</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>15.0162602104859</v>
+        <v>15.74181993020871</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>20.15105836294576</v>
+        <v>21.44364790977651</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>21.92900615546078</v>
+        <v>22.59751186710145</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16.82279615016572</v>
+        <v>19.27910317011222</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>36.475170567641</v>
+        <v>34.84511878488482</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>12.28251034468137</v>
+        <v>11.22990092629448</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>15.23954895126941</v>
+        <v>15.2496817533144</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>16.62286170392706</v>
+        <v>15.70289252846698</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>9.640911620605308</v>
+        <v>10.97897181815931</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.15163442730793</v>
+        <v>35.08343968972753</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>12.66823060981488</v>
+        <v>10.78352595321229</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>13.41280620763301</v>
+        <v>12.57984665160677</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>14.73267608061648</v>
+        <v>13.10419189443068</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>8.136384683586535</v>
+        <v>9.198273265500781</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>33.95253401259544</v>
+        <v>32.326378766248</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>23.00196357809369</v>
+        <v>24.29211438568989</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>24.60157280935388</v>
+        <v>25.61792434692285</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>18.48244439945132</v>
+        <v>20.91238995244722</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>20.21262764272342</v>
+        <v>19.87689232527948</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>24.8753143402255</v>
+        <v>24.87961209970155</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.70260258616605</v>
+        <v>25.71822529883942</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>19.82795284683843</v>
+        <v>20.77104136499793</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>41.82449457337491</v>
+        <v>39.70513708258844</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>45.73227842363182</v>
+        <v>43.92126974016797</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>37.51963407078895</v>
+        <v>35.41594735167867</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>45.65719248299829</v>
+        <v>45.76192543634473</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>55.39350953438368</v>
+        <v>54.06834858187044</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>60.58588946339616</v>
+        <v>58.98851151842664</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>51.19247930186114</v>
+        <v>51.01710311678919</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>39.11748608127142</v>
+        <v>39.55572582121214</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>42.52965077871591</v>
+        <v>42.71672599623454</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.59030935944861</v>
+        <v>35.76842803064206</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.15006230677631</v>
+        <v>46.31959678084639</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>55.68598520714092</v>
+        <v>54.2115649253097</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>60.82361747785465</v>
+        <v>59.15426101957085</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>50.63501754558102</v>
+        <v>50.53799359599768</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>35.04596844643908</v>
+        <v>33.08025685987722</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>38.32005523630016</v>
+        <v>35.97140377391671</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>31.51500321543715</v>
+        <v>30.2110672880268</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>48.7141010428532</v>
+        <v>49.56376591110249</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>55.74109472746217</v>
+        <v>55.71176181322677</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>60.8794410366313</v>
+        <v>60.84432557275985</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>50.27033930676481</v>
+        <v>50.85195073670705</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>7.85980139812801</v>
+        <v>7.158794385826962</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>8.021513380890163</v>
+        <v>9.659657276898855</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>8.076709368604917</v>
+        <v>10.09838264483295</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>7.561218700774461</v>
+        <v>9.3192549602471</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>9.374121064952718</v>
+        <v>9.969613815721029</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>10.10413356674287</v>
+        <v>11.02654407908502</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.3548039701716</v>
+        <v>14.0034342938925</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.04916547929961</v>
+        <v>14.9459582491769</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>13.52036539122375</v>
+        <v>12.78424368953967</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.12150213243309</v>
+        <v>16.59156723048782</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>9.900090720369253</v>
+        <v>10.27329034664714</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>12.77377579250105</v>
+        <v>12.21874476639564</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.27594148681249</v>
+        <v>13.31473743952235</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>8.843189913311633</v>
+        <v>11.22547120930842</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>15.4935327061879</v>
+        <v>17.29661555970353</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>9.203401856772334</v>
+        <v>6.309479974452337</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>8.15557569117906</v>
+        <v>7.264730452064843</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>9.108476549340633</v>
+        <v>7.730372857308787</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>4.781686837056927</v>
+        <v>6.563706764099763</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>12.32043084350754</v>
+        <v>8.787852174527476</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>12.68714502218029</v>
+        <v>14.41711752025902</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.24236544667807</v>
+        <v>14.22513959298844</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>7.896836567834985</v>
+        <v>11.1110507812705</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.7094544601852</v>
+        <v>9.304942664730028</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>14.51876356954112</v>
+        <v>14.30354658143231</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>13.94681455702352</v>
+        <v>14.01929717730576</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.769379815589929</v>
+        <v>10.17414893769217</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.05779977767953</v>
+        <v>21.72339686128273</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>24.72987057725769</v>
+        <v>22.71369079632241</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>17.91247893024503</v>
+        <v>17.07898543530081</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>32.52750686299335</v>
+        <v>33.80093755607357</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>37.798890832883</v>
+        <v>38.50563643710213</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>40.36444215695852</v>
+        <v>40.6134978397159</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>30.59315505022816</v>
+        <v>32.47743872430374</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.43395041053515</v>
+        <v>18.65874156665589</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.5402767799446</v>
+        <v>18.89702414544592</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>13.93603742375008</v>
+        <v>13.82433670583726</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>30.79134909479662</v>
+        <v>31.09546272186704</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.72802762820435</v>
+        <v>30.61039615295777</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>35.85512829155375</v>
+        <v>31.17460015294118</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.3082691958323</v>
+        <v>21.49408514284477</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>12.49885748843662</v>
+        <v>9.469755417102583</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>13.37823440797282</v>
+        <v>9.722345032185988</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>8.8584015489355</v>
+        <v>8.020572536440721</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>32.09429840019616</v>
+        <v>33.65501390640808</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.72331618925718</v>
+        <v>32.92764523412737</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>34.35935508520335</v>
+        <v>33.08189523342264</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>24.53846222028547</v>
+        <v>25.79457793008649</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>41.99332151952249</v>
+        <v>39.39608658368762</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>36.85240029955337</v>
+        <v>32.60606764946656</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>39.56074576862822</v>
+        <v>35.03378630961691</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.11231999012828</v>
+        <v>30.92361251603063</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>22.81496442292567</v>
+        <v>22.7522047149914</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>49.45487644861694</v>
+        <v>44.78550631485682</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>51.73797343705313</v>
+        <v>51.02908079370492</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.38389398199168</v>
+        <v>55.46607262633673</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>45.96268003050507</v>
+        <v>48.18946786628538</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.17254380693102</v>
+        <v>38.03612097826588</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>46.67421883661246</v>
+        <v>46.35797254747208</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>47.04623278904728</v>
+        <v>47.29945455318727</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>51.39414589974537</v>
+        <v>51.48274030707224</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>38.13469974104495</v>
+        <v>39.40406237704377</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>39.07703786451063</v>
+        <v>39.16721691046152</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>48.00496961888035</v>
+        <v>44.14222051519931</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>44.37210311848801</v>
+        <v>42.80231356901525</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>48.25127150973985</v>
+        <v>46.23265222675907</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>35.0783497968303</v>
+        <v>34.68181493984486</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.3166881720762</v>
+        <v>34.4205943759611</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.61863122747756</v>
+        <v>26.05245743759198</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.64476308930773</v>
+        <v>28.45852041631912</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.67634394920674</v>
+        <v>21.45194133065522</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.25250258105014</v>
+        <v>32.08928678147635</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.10156722821155</v>
+        <v>33.40600939940575</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>37.79510687651641</v>
+        <v>35.31398461778949</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.33006553319182</v>
+        <v>27.96401032273265</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>46.52955040388123</v>
+        <v>44.39461463923848</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>51.74990811443546</v>
+        <v>48.61911425065212</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>41.79339598495954</v>
+        <v>40.84674203867641</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>50.95144991698979</v>
+        <v>48.4686648806427</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>59.49958460936071</v>
+        <v>55.39453089392842</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>65.45434764232846</v>
+        <v>60.51358674939515</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>54.19143201068719</v>
+        <v>51.09888541261749</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>44.12646482822273</v>
+        <v>43.70990643494605</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>49.03700643496016</v>
+        <v>48.03964615898953</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>38.78220669490492</v>
+        <v>39.45502023003926</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>52.43021489283657</v>
+        <v>52.12232061874663</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>59.99598284929026</v>
+        <v>58.79171073515231</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>66.02856259051313</v>
+        <v>64.43141896452076</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>53.53376620173827</v>
+        <v>54.02019525130235</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>37.54370542916838</v>
+        <v>36.13254035646818</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>42.26774111016954</v>
+        <v>40.22823172597435</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.41754540880471</v>
+        <v>32.97973227836903</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>52.74066639921787</v>
+        <v>50.55667037795519</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>58.57065255975402</v>
+        <v>56.63825280519826</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>64.41272562071963</v>
+        <v>62.31548164982108</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>52.2032067657663</v>
+        <v>51.85142019628245</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.179511891055313</v>
+        <v>7.278588662103378</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>5.611988908615245</v>
+        <v>9.285269268386383</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>5.59054193391718</v>
+        <v>9.092192029253336</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.201633106299106</v>
+        <v>8.899339031509879</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>8.71644900311972</v>
+        <v>9.311865939602509</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>13.27568991118333</v>
+        <v>12.36128816465234</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>17.97114847312272</v>
+        <v>16.25268454010461</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>19.49675043074758</v>
+        <v>17.11862481432022</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.56670383899179</v>
+        <v>14.73377117851556</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.50972163555224</v>
+        <v>31.25459646429989</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>11.03193914546264</v>
+        <v>12.33317571817281</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>13.67851940316111</v>
+        <v>14.61390619328489</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>14.62967417273899</v>
+        <v>15.08770468454692</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>9.294495445289627</v>
+        <v>12.38657565099123</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.21818787405786</v>
+        <v>26.17984806112869</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>9.490808088048063</v>
+        <v>8.977329078531206</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>9.954309087942764</v>
+        <v>11.09331388027383</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.70440796972346</v>
+        <v>11.49057135187028</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>6.558223638530691</v>
+        <v>10.14082147372474</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.11568167298297</v>
+        <v>17.83585961316459</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.907992472586091</v>
+        <v>11.8308662164864</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>10.42441180133398</v>
+        <v>12.09640410102032</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>6.36011159453497</v>
+        <v>8.978320513107285</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>12.14601762718724</v>
+        <v>9.811761870635234</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.51436084309102</v>
+        <v>13.38955494615324</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>14.90614424839058</v>
+        <v>13.83758846539987</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>10.10001991397922</v>
+        <v>11.48758924057012</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.33613852659747</v>
+        <v>35.21924580598007</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>37.16530619319611</v>
+        <v>38.63226059468552</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.33915988420108</v>
+        <v>30.91850491072361</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>43.89888123753963</v>
+        <v>42.26763348942202</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>51.30552909952631</v>
+        <v>52.41255930837248</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>54.88847294959039</v>
+        <v>56.14815989069072</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>46.38319061465137</v>
+        <v>49.02888372311141</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.27343023194695</v>
+        <v>26.94384636176253</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.19046779205693</v>
+        <v>27.87260040069862</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.14516210046113</v>
+        <v>23.72442168113924</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.82668676450287</v>
+        <v>40.72142257256118</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>46.59839277984749</v>
+        <v>45.77899466107031</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>49.46931665118409</v>
+        <v>47.59251294215353</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.47733821589471</v>
+        <v>40.72935783333932</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>16.67656933078091</v>
+        <v>14.87199098917922</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>18.08575502305813</v>
+        <v>15.20474664453752</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>14.24465772269956</v>
+        <v>13.6464309856511</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>38.08938984936116</v>
+        <v>38.22834830938556</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.8041470417027</v>
+        <v>40.2130506351589</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>43.18290932590227</v>
+        <v>41.98909179393083</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>34.9791198456394</v>
+        <v>34.97568706543954</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>0.7881811487456147</v>
+        <v>2.447662009681725</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-0.9582676588801675</v>
+        <v>2.94035899570347</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-1.227263104264885</v>
+        <v>2.618015065697545</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-1.747850506401019</v>
+        <v>3.388166210667926</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.22257824584304</v>
+        <v>23.3049447763038</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>4.934238678470209</v>
+        <v>3.128372835683574</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>7.840998125558187</v>
+        <v>5.741434408536009</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>8.765160621273189</v>
+        <v>5.739478727380984</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>5.930406626702414</v>
+        <v>5.137547114954685</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>38.70008018732975</v>
+        <v>36.86960839823317</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>7.297145697116903</v>
+        <v>8.053480561399152</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>8.980592728821875</v>
+        <v>10.69192650685565</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>9.739122549161657</v>
+        <v>10.36079934869779</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>4.335006558829654</v>
+        <v>7.659071177160722</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>39.58239603416104</v>
+        <v>37.88652800841029</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.3974766916355</v>
+        <v>9.361616206641035</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>10.6435227311111</v>
+        <v>9.838616282739281</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>11.63963118250761</v>
+        <v>9.644707909982806</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>6.828608976942039</v>
+        <v>8.621760173668228</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>37.31730597280323</v>
+        <v>34.98220761365227</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.21280527901311</v>
+        <v>26.60006032957973</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.57398158495092</v>
+        <v>28.17961906462217</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.65953410876476</v>
+        <v>23.34217457402131</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.07962021701423</v>
+        <v>26.61098259764691</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.34575494352739</v>
+        <v>28.94582710671375</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.89775711024433</v>
+        <v>30.19090149228824</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>23.64008327152525</v>
+        <v>23.50754229936658</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>43.82670330876851</v>
+        <v>42.62025199178291</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>48.43644608744589</v>
+        <v>46.70182479268108</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>38.92490813167574</v>
+        <v>39.16549796349484</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>47.92330030452582</v>
+        <v>48.84278928960738</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>57.08999151259402</v>
+        <v>56.50538656797654</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>63.00439678831199</v>
+        <v>62.00532496426698</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>51.31194366131867</v>
+        <v>51.93597162328739</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>44.2019501493126</v>
+        <v>43.5718146194223</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>48.51979025952567</v>
+        <v>47.72926071026863</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>38.85716675594131</v>
+        <v>39.48380681338974</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>50.56920414949654</v>
+        <v>50.1458160423098</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>59.59738891508979</v>
+        <v>58.49310923576505</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>65.59817592792473</v>
+        <v>64.13647942441177</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>52.72961960186382</v>
+        <v>53.46807259948848</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.37627209667606</v>
+        <v>37.16443504999567</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>43.55338985404248</v>
+        <v>41.20168239035637</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.87615132143265</v>
+        <v>33.76099874169171</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>50.7929850850736</v>
+        <v>51.18828095162623</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>58.14442649561413</v>
+        <v>58.87609147076842</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>64.0851082933455</v>
+        <v>64.76360679438538</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>52.01354741459824</v>
+        <v>53.56486789455056</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>10.19000762300993</v>
+        <v>11.35860244165749</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>12.35619913556426</v>
+        <v>14.04782064834542</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>12.42300446798943</v>
+        <v>14.21880647961927</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>11.49528080615389</v>
+        <v>12.91942604420355</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>4.712116629913766</v>
+        <v>7.073861051364968</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>16.03666895080887</v>
+        <v>15.98030994149205</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>22.89577915210677</v>
+        <v>20.57390123776598</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>24.43384382593148</v>
+        <v>21.65242870512344</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>20.99682951844431</v>
+        <v>19.06973457163754</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>20.20209211506866</v>
+        <v>22.38001726219654</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>14.88422628617239</v>
+        <v>17.82235896831117</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>19.85354802253388</v>
+        <v>20.42059568153958</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.04164673615461</v>
+        <v>21.18306268518708</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>15.5233848855559</v>
+        <v>16.67745938972735</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.22082421929082</v>
+        <v>18.76330233814404</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.11956833003815</v>
+        <v>13.48657727586234</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.43924851023716</v>
+        <v>14.93984639552427</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.54855442287761</v>
+        <v>15.68870233584222</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>11.93156100494213</v>
+        <v>12.77091311049618</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>13.67270834670709</v>
+        <v>13.44937679039224</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>6.087990102809137</v>
+        <v>8.76518633442873</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.009584573060046</v>
+        <v>8.713323907366476</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>3.418925033854144</v>
+        <v>6.705537018846432</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>14.20454178797447</v>
+        <v>16.16991783852331</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.29469156177762</v>
+        <v>18.88299879997304</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.09599158832445</v>
+        <v>19.95231716834783</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>14.6133930062317</v>
+        <v>16.69170460247123</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>23.25727832729418</v>
+        <v>25.06331745854444</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.08322214400934</v>
+        <v>26.22992170861803</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.05552599675786</v>
+        <v>22.96649081724603</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>33.59609334300367</v>
+        <v>35.26784709885176</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>42.60506500888349</v>
+        <v>43.26769875630888</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>46.15399253266595</v>
+        <v>45.72207804586345</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>38.00482286804447</v>
+        <v>39.77934265780839</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.31703500950498</v>
+        <v>19.50849937348733</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.59807036062318</v>
+        <v>20.08348682441354</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>16.67831991193044</v>
+        <v>16.69278437515333</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.35430461430194</v>
+        <v>35.38320006493266</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>41.59103189275167</v>
+        <v>41.42038267335321</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>44.94050779523717</v>
+        <v>44.01311227713074</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.62623671244319</v>
+        <v>35.61677252249905</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>12.41245698130892</v>
+        <v>11.68543644259409</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.45273697691273</v>
+        <v>12.03903214547151</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>10.24056831090665</v>
+        <v>10.27447794739484</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.22911796892701</v>
+        <v>31.38076772929912</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.82461006078451</v>
+        <v>35.34071021983708</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>40.10731489349241</v>
+        <v>38.57599047001777</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.80545324130552</v>
+        <v>30.29351120740252</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>1.558204526036143</v>
+        <v>1.777552007273265</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>2.752344268816007</v>
+        <v>2.94195688763315</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>2.282181515109528</v>
+        <v>2.89860146442766</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>3.767066449984032</v>
+        <v>3.2909305055373</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-1.026867962211</v>
+        <v>2.077527830711798</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.793723332243065</v>
+        <v>5.750525860290534</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>8.102753516302684</v>
+        <v>7.640530489107846</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>8.559393379127169</v>
+        <v>7.816839972184713</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>7.942655672329956</v>
+        <v>6.821785962347434</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>4.470561525483305</v>
+        <v>5.056151908676938</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>3.650304632467943</v>
+        <v>7.449439529906229</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>7.560915051409559</v>
+        <v>9.911144730495515</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>7.708398278108135</v>
+        <v>10.06617801045575</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>5.482716020841242</v>
+        <v>8.715721887981918</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>3.005487863496271</v>
+        <v>3.954805049786419</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>4.307611403683573</v>
+        <v>4.861093853734488</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>6.250323952649044</v>
+        <v>6.107044535796813</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>6.608345170767443</v>
+        <v>6.215113619601443</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>5.061191502582563</v>
+        <v>5.898949535499174</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1.973360836477749</v>
+        <v>3.033220031527211</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>0.5725630518839431</v>
+        <v>3.581894239656226</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>0.08136222683878458</v>
+        <v>3.33372486483233</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>0.3655273357636162</v>
+        <v>3.541407399633997</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>9.72521993426372</v>
+        <v>11.27734743945475</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>13.12635610760479</v>
+        <v>13.80104197468133</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>13.12209591417153</v>
+        <v>14.29455925034359</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>11.3810175817827</v>
+        <v>13.04685411748735</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>6.997410776405999</v>
+        <v>6.687461063877286</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>7.858978190064128</v>
+        <v>6.751447733911434</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>5.995931226635363</v>
+        <v>6.164071106897694</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.04417913988333</v>
+        <v>21.49861536207834</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.82643895860253</v>
+        <v>29.3964513780971</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.88912181688442</v>
+        <v>30.4819590002029</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>27.05495496828284</v>
+        <v>27.16070139897553</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>4.838432905705858</v>
+        <v>4.955488040303607</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>5.147781481470346</v>
+        <v>4.985236670931677</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3.949804370353249</v>
+        <v>4.810476130244918</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.30723863718721</v>
+        <v>21.31812099327524</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.48496637562056</v>
+        <v>28.28753280560527</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.3440895477335</v>
+        <v>29.51888002718563</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.92770219158292</v>
+        <v>26.07138670372575</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>1.726115693578073</v>
+        <v>3.331477101101456</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>2.104821096830925</v>
+        <v>3.312445183391549</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>2.516307462274906</v>
+        <v>3.653173329737378</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>21.94051111364481</v>
+        <v>21.90806070092363</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.79370819418626</v>
+        <v>25.82210270721666</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.86617048527357</v>
+        <v>27.5105293377657</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.27652897376413</v>
+        <v>23.90536536054017</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>18.69426027215126</v>
+        <v>19.27297387696719</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>21.37893879536649</v>
+        <v>20.44450087539489</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.81294580314685</v>
+        <v>21.65229460323123</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>20.98127893432794</v>
+        <v>18.70217087350911</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>5.998343548606172</v>
+        <v>8.593562230568974</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.88695074471784</v>
+        <v>33.57520760403848</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>43.64323486082039</v>
+        <v>43.0520463038504</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>47.24328427363714</v>
+        <v>46.63982060098969</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>42.53338491906565</v>
+        <v>41.09596891208615</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.27641220922762</v>
+        <v>22.85024305869063</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>36.38179830579143</v>
+        <v>36.59647091291206</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>44.90217944913685</v>
+        <v>45.96006023423371</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>48.36748094680177</v>
+        <v>49.62576004254591</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>41.71454344825624</v>
+        <v>44.10823620215768</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.87924868318547</v>
+        <v>26.71514251214179</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.26338466625055</v>
+        <v>29.58549782231196</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.0897247811815</v>
+        <v>32.57134980673345</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.7431951300624</v>
+        <v>34.46362422863131</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.35484888553506</v>
+        <v>32.95436799509449</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.6521089334451</v>
+        <v>24.45329054005595</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>8.773076593792865</v>
+        <v>9.794136991730969</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>9.380188440950629</v>
+        <v>10.01883541677888</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>6.460988767608104</v>
+        <v>8.31791256426866</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>14.50547665765393</v>
+        <v>15.49117624800625</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>16.86924338632726</v>
+        <v>16.05062326068999</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>17.82970528274541</v>
+        <v>16.49651462242555</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>12.58344968687336</v>
+        <v>12.65715706447795</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>34.07583119053207</v>
+        <v>31.24488256704786</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.50633528502904</v>
+        <v>33.70345903297008</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.40887986692849</v>
+        <v>30.59896722147509</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.588288292699</v>
+        <v>40.2955379781854</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>53.45824784015524</v>
+        <v>52.26575307879104</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>58.2548288774335</v>
+        <v>56.31656153322564</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>49.81510730226292</v>
+        <v>49.27411620828687</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>35.1464002159572</v>
+        <v>35.35866862034047</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.12948679278109</v>
+        <v>37.86192549140149</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.08471642008374</v>
+        <v>34.93907504527403</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>46.00390771190366</v>
+        <v>43.82817739290068</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>55.12152557708961</v>
+        <v>55.28131710880521</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>59.76921981330121</v>
+        <v>59.46008028791501</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>50.32192907726436</v>
+        <v>51.69653441918388</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.75612836695132</v>
+        <v>26.00874948922806</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.20277523983684</v>
+        <v>28.16843447684368</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>24.4792995890989</v>
+        <v>26.43238543926143</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>43.02178792094803</v>
+        <v>42.93848185264174</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>47.05454719981078</v>
+        <v>46.3432404666994</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.86075486042351</v>
+        <v>49.7238369584328</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>41.52778675871631</v>
+        <v>40.71479582340118</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>36.37081016502967</v>
+        <v>34.88027388483113</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.12904474786241</v>
+        <v>34.60699899931986</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>39.05659750126861</v>
+        <v>37.08823752697741</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>30.08685294336821</v>
+        <v>29.11607502290482</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>21.33645534919306</v>
+        <v>19.84858829824807</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>44.29477045054004</v>
+        <v>43.06105232285125</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>50.35364420225407</v>
+        <v>49.88942576382154</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>55.15238034436729</v>
+        <v>54.19875824633307</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>44.77086763596733</v>
+        <v>46.63983446436416</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.76369465212679</v>
+        <v>39.11012005711083</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>40.82090165784531</v>
+        <v>39.86247477842952</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>45.24653193678313</v>
+        <v>43.09283304000716</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>49.59215498572682</v>
+        <v>46.77793670706977</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>37.30843811318263</v>
+        <v>35.9113641447302</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>37.27129090330098</v>
+        <v>37.26163890441729</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>43.06051280081014</v>
+        <v>43.49131586552875</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.99512469085825</v>
+        <v>45.19087094675005</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>49.11819239496492</v>
+        <v>49.20191626684129</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>37.0048371119728</v>
+        <v>37.66504440434706</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.94333625610403</v>
+        <v>34.83213263316435</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>23.95821725639727</v>
+        <v>22.92181202712497</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.12967701918045</v>
+        <v>24.68110243416436</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>19.28721895926221</v>
+        <v>18.70421342773944</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.95439318951132</v>
+        <v>27.37282099752172</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.66417748942845</v>
+        <v>29.59710594305471</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.78676217517305</v>
+        <v>30.87785676103348</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>23.35517282741754</v>
+        <v>24.13175439397342</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>43.76759289366311</v>
+        <v>43.0302041938354</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>48.28395094684575</v>
+        <v>47.25109753228382</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.47330780560885</v>
+        <v>39.75870418555386</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>47.90015647351153</v>
+        <v>45.89980567412143</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>56.1159705632369</v>
+        <v>54.10098043999851</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>61.59219925526638</v>
+        <v>59.28397196531189</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>50.21149022190573</v>
+        <v>49.82265518979241</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>41.48596702101388</v>
+        <v>42.20044579642806</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>45.41917309134141</v>
+        <v>46.09792452586317</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>36.76360436003431</v>
+        <v>37.76931519713978</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>45.89972813765038</v>
+        <v>43.71834345316761</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>53.42953846206819</v>
+        <v>52.27461132376534</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>58.65224619476663</v>
+        <v>56.89253935565099</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.42133866062036</v>
+        <v>47.06526525748196</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>35.85750600965877</v>
+        <v>35.58755994351215</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>39.36003392232793</v>
+        <v>39.05762358472869</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>32.53930080665838</v>
+        <v>33.31066052476736</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>46.48977561955332</v>
+        <v>45.51820302724268</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>51.66963798266078</v>
+        <v>51.16282639785362</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>56.43248623661039</v>
+        <v>55.31058731710473</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>45.06746475617973</v>
+        <v>45.68477017124484</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>37.20174202825748</v>
+        <v>40.92004607116091</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.66601341078977</v>
+        <v>32.91068966561373</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.14772710640095</v>
+        <v>35.71377901960007</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>27.16589466994923</v>
+        <v>30.29680583100774</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.74276940518455</v>
+        <v>20.81669685048911</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>44.73168590676352</v>
+        <v>42.54521652803631</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>47.05285978337452</v>
+        <v>46.75320010750852</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>51.51841945255062</v>
+        <v>50.95492598023772</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>41.89319737725813</v>
+        <v>44.43053908439462</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>40.142635783323</v>
+        <v>37.52363979571931</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>42.18064567836586</v>
+        <v>42.33291564260963</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.8696491319556</v>
+        <v>43.18784687342164</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>46.13207074224989</v>
+        <v>47.08916477719652</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.63443027135152</v>
+        <v>33.91269887765837</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.87163040039317</v>
+        <v>37.26373565477111</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>43.19392004881335</v>
+        <v>42.74491474479697</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>37.81092893729307</v>
+        <v>41.63278725462987</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>41.57753435511358</v>
+        <v>44.89524574003543</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.35806460143231</v>
+        <v>31.99230046261673</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>37.6181137440037</v>
+        <v>36.73123684802121</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.01450784773261</v>
+        <v>22.99120108875898</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.25465303993045</v>
+        <v>24.52832048095982</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>18.53331161688725</v>
+        <v>18.88785693839887</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.15519728591921</v>
+        <v>28.71819923222414</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.62377014245206</v>
+        <v>30.91148495711022</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.71708983978541</v>
+        <v>32.19809249390601</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.07744681361783</v>
+        <v>25.50037914979302</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>47.98240064864326</v>
+        <v>44.66619590133217</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>53.10295817673363</v>
+        <v>48.84167499087365</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>43.71317907283754</v>
+        <v>41.84197948226978</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.87792672853925</v>
+        <v>44.65366898474954</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>57.94038625064824</v>
+        <v>54.08927306973919</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>63.91975094789119</v>
+        <v>58.9437246027444</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>52.52929113707096</v>
+        <v>49.99149701686072</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>43.78523378752372</v>
+        <v>42.39896673099169</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>48.54052201818291</v>
+        <v>46.60695834774108</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.73772638365567</v>
+        <v>37.97154206095549</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.7234207388471</v>
+        <v>47.4986346864958</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>55.5302338227154</v>
+        <v>54.70104290932586</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>61.44918849676331</v>
+        <v>60.04425543276358</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>48.67262570394918</v>
+        <v>49.11945323023537</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>37.88414445313434</v>
+        <v>38.0106487603742</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>42.2304386450963</v>
+        <v>42.06488523097638</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.72495668872283</v>
+        <v>35.11925944487258</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>50.19252556283389</v>
+        <v>46.57476234382808</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>54.60607154951867</v>
+        <v>53.34287571619841</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>59.96916459763813</v>
+        <v>58.53352538398509</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>47.38700332695511</v>
+        <v>47.58672322454511</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.47387904326722</v>
+        <v>39.70511107282259</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.52415560303793</v>
+        <v>27.75559029429941</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.472484931545</v>
+        <v>29.62861011464599</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>24.22851923727224</v>
+        <v>22.24855212152616</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>39.0268491074812</v>
+        <v>39.32213337190635</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>46.66982429928151</v>
+        <v>48.48025971527144</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>45.90140870482732</v>
+        <v>47.81671384111485</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>49.9232850557284</v>
+        <v>51.92010337720363</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>39.60067993613079</v>
+        <v>43.45132787848097</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>54.5386282333582</v>
+        <v>52.96842067038541</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>50.27780765601146</v>
+        <v>47.55014993240141</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>46.82966554015753</v>
+        <v>44.93548685542441</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>51.0340849277127</v>
+        <v>48.73530125541235</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>37.60004075837479</v>
+        <v>35.86685326061907</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>55.24708098616657</v>
+        <v>53.01814802503061</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>48.75487285992224</v>
+        <v>49.96759194131083</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.9418257827178</v>
+        <v>44.20827349707959</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>44.04260953946105</v>
+        <v>48.02075894674977</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>30.82659599013573</v>
+        <v>33.8204039754786</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>55.32533123433655</v>
+        <v>53.29554313093394</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.1303163677334</v>
+        <v>29.61760322017776</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.32765000356483</v>
+        <v>30.4360620117107</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.66445838399079</v>
+        <v>25.33726827566036</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>42.11215907128658</v>
+        <v>47.68130083232319</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.18113699098388</v>
+        <v>37.93582818578886</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.35763588321805</v>
+        <v>38.74499225950201</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.70553546690979</v>
+        <v>32.40645581481335</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>51.28437711863177</v>
+        <v>48.68664163242962</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>55.01191290494698</v>
+        <v>51.66227920248863</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>47.91192533082577</v>
+        <v>46.4469638395836</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>62.11455688374846</v>
+        <v>59.79523206048815</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>63.25914821439167</v>
+        <v>60.35042632257696</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>67.92515644661067</v>
+        <v>64.13362555367645</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>58.75338779552654</v>
+        <v>57.3957937860828</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>50.23801340415945</v>
+        <v>48.07814702899741</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>53.79063077953553</v>
+        <v>50.93199252770775</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>46.12393937681887</v>
+        <v>45.04612313896439</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>64.36580609879394</v>
+        <v>62.89282170291851</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>63.04403846892541</v>
+        <v>61.93754995114907</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>67.72186754710222</v>
+        <v>65.81671278981594</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>57.06541743996522</v>
+        <v>57.79445956227878</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>45.20854269839315</v>
+        <v>44.82278563264799</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>48.88559839251507</v>
+        <v>48.32382549138587</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>41.60661183578645</v>
+        <v>42.48357635208555</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>66.50610103088815</v>
+        <v>64.20037183615766</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>61.57479549411406</v>
+        <v>62.46813598981369</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>66.0975083846392</v>
+        <v>66.84490280102558</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>55.03450116520384</v>
+        <v>57.7198777857981</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.78529596069338</v>
+        <v>22.81875312913999</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.78447795341066</v>
+        <v>21.25134146315005</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.17790894396558</v>
+        <v>22.92641305190185</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.93163082802208</v>
+        <v>17.13117465522473</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.68661642865341</v>
+        <v>15.55425766086451</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.92167449966088</v>
+        <v>42.50322052313573</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>47.50902178106875</v>
+        <v>49.12974549433896</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>52.45495549920439</v>
+        <v>54.29455465384995</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>42.21572398179955</v>
+        <v>44.87972309746337</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>38.71019471888152</v>
+        <v>38.02705043092796</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>38.96383590151171</v>
+        <v>38.99204398155119</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>43.36121068211123</v>
+        <v>41.84915511403226</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>47.85100097198766</v>
+        <v>46.03929517605833</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>35.14759108290077</v>
+        <v>33.79316170299172</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.49252763025491</v>
+        <v>38.88367909022019</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.33904487579806</v>
+        <v>29.22190888460516</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.57582488641305</v>
+        <v>36.6294102513008</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>40.15647834857747</v>
+        <v>39.04377549101535</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.62615718547173</v>
+        <v>31.17061389037133</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.3244095836197</v>
+        <v>30.96469094521915</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>18.15620755931646</v>
+        <v>18.99226280959379</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>20.04734273097796</v>
+        <v>20.37511618817713</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>12.98524183168473</v>
+        <v>15.23018328134616</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.1876620926319</v>
+        <v>21.74937865438761</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.19713673579628</v>
+        <v>24.48128215197209</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.91995514261853</v>
+        <v>25.42856762227587</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>18.37912684279285</v>
+        <v>19.9196397147579</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.42107013940445</v>
+        <v>42.6423427339491</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>48.27947214631186</v>
+        <v>47.50148959931724</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.54335394832476</v>
+        <v>39.02505887571066</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>47.62283599144877</v>
+        <v>44.97422473823414</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>56.7739109436646</v>
+        <v>53.06088950667949</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>62.50120737002845</v>
+        <v>58.74733019454478</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>51.20991706686321</v>
+        <v>48.17495008741753</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>41.66355562587964</v>
+        <v>41.98996191346372</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>45.95728835938935</v>
+        <v>46.25263683860103</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>36.14689050544275</v>
+        <v>37.78129921539252</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>47.37246903206955</v>
+        <v>45.54421912623499</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>55.15275498666374</v>
+        <v>53.37057067833121</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>60.56254416575761</v>
+        <v>58.39132917348246</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>48.28705706542252</v>
+        <v>48.3485382684628</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.80803377645138</v>
+        <v>26.97742603855279</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>33.16501636799677</v>
+        <v>28.62706290998569</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.46170878003081</v>
+        <v>21.06034383981665</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>43.13214944197222</v>
+        <v>42.07209596798947</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>48.38253626715583</v>
+        <v>48.54107226928847</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>52.77385697075828</v>
+        <v>52.01905501644578</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>41.73575618011934</v>
+        <v>44.01446421067094</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>10.88891118027284</v>
+        <v>11.60442340124257</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>11.40924239938989</v>
+        <v>13.8751459713665</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>11.62140991696407</v>
+        <v>14.06518064262209</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>9.71751741299385</v>
+        <v>13.08758525394336</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>13.28608867891532</v>
+        <v>11.30633828204569</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>17.82423862755913</v>
+        <v>17.83361281805406</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.68187022599389</v>
+        <v>22.52488572177799</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.66485801476384</v>
+        <v>23.81960662354888</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>21.00897607447949</v>
+        <v>20.15246081296926</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.22835427628888</v>
+        <v>36.85235004615646</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>17.40141279192653</v>
+        <v>16.10513539133084</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.07325700408627</v>
+        <v>19.83718137793924</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.64855215002593</v>
+        <v>20.55683515455359</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>16.45988349868016</v>
+        <v>16.98996063170441</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>30.53147501035237</v>
+        <v>31.0122962791342</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>19.36933756194341</v>
+        <v>16.71619121413178</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>19.62701203495552</v>
+        <v>18.87911349597142</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>20.85269478776868</v>
+        <v>19.75769002361346</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>15.18714734532159</v>
+        <v>16.61482309596331</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>32.80506973211283</v>
+        <v>32.28506764465043</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>14.8486737606075</v>
+        <v>13.83233597667875</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.89337578878854</v>
+        <v>14.37283312276919</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>10.83293963092199</v>
+        <v>11.20195479946217</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>13.66892650436449</v>
+        <v>12.61835860436211</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.68729332583921</v>
+        <v>14.45664088158463</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.49542971764193</v>
+        <v>15.01610139104887</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>11.14839933729682</v>
+        <v>12.39300727211833</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>40.5409638622727</v>
+        <v>40.41134380485171</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>44.29753952989059</v>
+        <v>44.58290090449569</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>36.54276665085284</v>
+        <v>36.21822459706204</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.66563199692497</v>
+        <v>46.8460505868489</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>54.48475177028069</v>
+        <v>54.19978012565161</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>59.15526575263866</v>
+        <v>59.13895512375836</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>49.80466852249569</v>
+        <v>49.91838981543467</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.60904003639605</v>
+        <v>34.45361430172509</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>37.53406685465963</v>
+        <v>36.60401129484129</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>30.5156054294179</v>
+        <v>31.04188544361722</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>43.99517612025652</v>
+        <v>44.33025602067784</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>50.91130365885791</v>
+        <v>49.7037918922395</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>54.98238166612724</v>
+        <v>53.19145339056519</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>45.16918261978516</v>
+        <v>44.69561803775186</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.12809546944014</v>
+        <v>32.43856171580154</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>34.48141161776739</v>
+        <v>34.20440081392063</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.4323679072613</v>
+        <v>29.4141340978765</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>42.75694606852612</v>
+        <v>42.30680344652912</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>45.60804637792415</v>
+        <v>42.75363757796079</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>48.61670304135068</v>
+        <v>44.84011004351093</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>39.05916896751752</v>
+        <v>35.63483168600061</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>12.700733522673</v>
+        <v>8.351102149368298</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>12.94047098692012</v>
+        <v>10.83523237685913</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.36815100586209</v>
+        <v>10.76718365424188</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>11.36583169790014</v>
+        <v>9.938157308917432</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>14.63624440208998</v>
+        <v>13.6571384467234</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.88467536724135</v>
+        <v>16.14882723606658</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.64263124666491</v>
+        <v>23.81937742307621</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.09206537324211</v>
+        <v>24.40255614699165</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>27.85171950041721</v>
+        <v>20.70821553217513</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>30.64921381910992</v>
+        <v>30.01259498055639</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>34.65050599535489</v>
+        <v>37.34963624323248</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>38.96946304933472</v>
+        <v>41.51745085135739</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>41.78464130033311</v>
+        <v>45.0479471762023</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>33.22128418430495</v>
+        <v>37.2843835203049</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>36.25702185934287</v>
+        <v>35.0243002522027</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>33.01178494538445</v>
+        <v>31.32795384176029</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>32.44276781711099</v>
+        <v>34.83242315035486</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>35.09865137871856</v>
+        <v>38.08256951507751</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>27.18803387890889</v>
+        <v>33.12203907149592</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>35.56860669237675</v>
+        <v>33.20799172944712</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>14.88926531353732</v>
+        <v>15.34870519050012</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>15.20144805039594</v>
+        <v>15.40038835645783</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>10.3399372031346</v>
+        <v>11.14097737574339</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>11.52655461044785</v>
+        <v>8.429626242651583</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>12.19172617831253</v>
+        <v>10.23959912369961</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>11.92129530472552</v>
+        <v>10.21540804383126</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>7.103636556695967</v>
+        <v>6.356887974843652</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>36.41232344241221</v>
+        <v>34.47169561243744</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>39.30720563306216</v>
+        <v>36.01502219208827</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>32.77805520223164</v>
+        <v>32.08470391527655</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>37.10742676825036</v>
+        <v>35.40897422716478</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>45.60069499387834</v>
+        <v>46.36026314289447</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>48.89674165378484</v>
+        <v>48.50617028037593</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>41.06071023220846</v>
+        <v>43.66881352696433</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>39.85179610876519</v>
+        <v>38.51964951218439</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>42.69414953367687</v>
+        <v>41.42913191131841</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>35.31555147620747</v>
+        <v>34.33253018174985</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>43.24920571537719</v>
+        <v>44.9136917701274</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>48.75437305171771</v>
+        <v>49.46622479497506</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>52.1914397850143</v>
+        <v>52.98150533619285</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>42.51871566259081</v>
+        <v>43.25165639261305</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.40049913506968</v>
+        <v>35.26910884265691</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.23702167359749</v>
+        <v>37.92394667400574</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>30.56253658665995</v>
+        <v>32.25678090327298</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>41.71151402040548</v>
+        <v>39.31997918702181</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>43.61265598924634</v>
+        <v>40.58194345633002</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>46.66489866547476</v>
+        <v>42.75732213202463</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>37.09427988021476</v>
+        <v>33.24618814984242</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>39.66715656768174</v>
+        <v>39.81558029882232</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>35.70766861856086</v>
+        <v>33.45939893823292</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>38.01879499789644</v>
+        <v>35.91801210739104</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.41763760523771</v>
+        <v>31.18297926685368</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.22050255873945</v>
+        <v>23.75867736334765</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>45.2834352076561</v>
+        <v>43.24773909251866</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>47.63381051332987</v>
+        <v>48.86984235449765</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>51.69394538011345</v>
+        <v>53.06386608733062</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>41.46638929684772</v>
+        <v>46.39895282742167</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>40.72184024581823</v>
+        <v>37.38298703281293</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>44.54297457397951</v>
+        <v>42.35410725123708</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>44.8018184555209</v>
+        <v>42.0806078731401</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>48.41277567802017</v>
+        <v>44.94580094711772</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>35.42679485503987</v>
+        <v>32.24638110930445</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>40.55591890440344</v>
+        <v>38.63721137079955</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>44.26489402834906</v>
+        <v>44.49701407369007</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>40.55705191714404</v>
+        <v>42.42249143331814</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>43.93741809947204</v>
+        <v>45.46356953924608</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>30.76562633267162</v>
+        <v>32.42215333802648</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>40.22326040143862</v>
+        <v>38.18276766313242</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.68335772282887</v>
+        <v>28.78923322526878</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.89430658710998</v>
+        <v>30.71954546142537</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>24.12448498493619</v>
+        <v>25.92042472131056</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>26.94929783785445</v>
+        <v>27.83981224372807</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>30.79693331485848</v>
+        <v>32.22754843749937</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>32.7194412485956</v>
+        <v>33.52077827279887</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>24.78499345911021</v>
+        <v>27.39276526165658</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>47.38431471273283</v>
+        <v>43.82955830779008</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>51.95489231738335</v>
+        <v>47.88469114948494</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>43.21761530589367</v>
+        <v>40.90702211697634</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>47.61365335965534</v>
+        <v>46.05354718418424</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>56.49175538791428</v>
+        <v>54.46685959457327</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>61.86997919544023</v>
+        <v>59.51446165967037</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>51.10760996986657</v>
+        <v>50.8173757908848</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>45.78542880196562</v>
+        <v>43.69001300991397</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>49.90655431825496</v>
+        <v>47.36498195108233</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>40.82289845076772</v>
+        <v>39.29830920084994</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>49.53783701550151</v>
+        <v>48.00246149585472</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>56.91020061563584</v>
+        <v>55.65155503760949</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>62.11620912403389</v>
+        <v>60.56079850788008</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>50.0754669347194</v>
+        <v>50.63304934801519</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>41.66528713241874</v>
+        <v>41.25051639130245</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>45.72020830234908</v>
+        <v>45.42951152430747</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>37.28976305547592</v>
+        <v>37.61512727758799</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>49.53381986326527</v>
+        <v>45.94806037488701</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>54.49078106275206</v>
+        <v>50.76256183375191</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>59.39870665861457</v>
+        <v>55.59988835340499</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>46.94340994755062</v>
+        <v>44.06975975129786</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>19.22695661886442</v>
+        <v>18.07822281744711</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>17.86573870578427</v>
+        <v>18.14580161160663</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>20.01714310839938</v>
+        <v>19.27197624973294</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>13.82889869109044</v>
+        <v>14.73024435946878</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>19.83250228451295</v>
+        <v>19.81682767744036</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>40.61894980021582</v>
+        <v>42.41451799085657</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>46.17987886176559</v>
+        <v>47.84097325989634</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>51.18389544412783</v>
+        <v>52.83224859919464</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>41.54863003573882</v>
+        <v>43.87728313078421</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>39.62162335971546</v>
+        <v>36.98240543517116</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>40.21252202596968</v>
+        <v>39.73886330627914</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>43.5234153045187</v>
+        <v>41.27058019439524</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>48.13768476120116</v>
+        <v>45.64321239120345</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>35.96990996652106</v>
+        <v>33.68118151575109</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>39.79739294083443</v>
+        <v>38.67337206355799</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>34.81485894604069</v>
+        <v>33.99729481977755</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>34.89797890682493</v>
+        <v>36.50633004442181</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>38.50212058818671</v>
+        <v>39.79396484142627</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>27.58202275676475</v>
+        <v>29.96475679085611</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>34.74788054944316</v>
+        <v>32.49945045875491</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>22.27914137576536</v>
+        <v>23.64450461390265</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>24.29722686378464</v>
+        <v>25.05604774897736</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>17.65863487884237</v>
+        <v>20.77303060555132</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>19.84696709669725</v>
+        <v>20.52032278800392</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>21.3964160140245</v>
+        <v>23.41642707843345</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>22.77074600910318</v>
+        <v>24.26056550341558</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>15.10237164167127</v>
+        <v>18.88981289337331</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>45.78292378619355</v>
+        <v>42.14912896291878</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>50.87573744047477</v>
+        <v>46.82254156787313</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>41.57113733997566</v>
+        <v>38.79553834709742</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>47.18826633299707</v>
+        <v>47.39467436093305</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>54.75039327965675</v>
+        <v>52.98771003690786</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>60.30692744095462</v>
+        <v>58.46468359616696</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>48.67081633231552</v>
+        <v>47.93855523584788</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>44.44301546743284</v>
+        <v>42.71691608497662</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>48.98467872544873</v>
+        <v>47.11957409569737</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>39.55821470284508</v>
+        <v>37.87450661482876</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>46.28540679199889</v>
+        <v>46.67101966787766</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>52.47982507721743</v>
+        <v>51.88868339171142</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>57.67369473250527</v>
+        <v>56.43417850217168</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>45.12964864114075</v>
+        <v>45.98411776852193</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>35.44682366342285</v>
+        <v>35.59054310750533</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>39.11406797685616</v>
+        <v>38.93790277538488</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>31.76790814858666</v>
+        <v>32.56360956466746</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>40.02593148640478</v>
+        <v>39.45499793972058</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>43.56689503131835</v>
+        <v>43.26603086124544</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>47.5584900342575</v>
+        <v>46.01112384958439</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>36.4602063424936</v>
+        <v>37.3571965356121</v>
       </c>
     </row>
   </sheetData>
